--- a/HBLAutomationAPIs/Resources/Feature/Data/HBLGet.xlsx
+++ b/HBLAutomationAPIs/Resources/Feature/Data/HBLGet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Case</t>
   </si>
@@ -36,24 +36,9 @@
     <t>Content-Type:application/xml,reqID:123456,channelID:MB</t>
   </si>
   <si>
-    <t>1610112347845</t>
-  </si>
-  <si>
-    <t>4250159948621</t>
-  </si>
-  <si>
     <t>When CNIC is 4250159948621</t>
   </si>
   <si>
-    <t>1620154029935</t>
-  </si>
-  <si>
-    <t>8120216868001</t>
-  </si>
-  <si>
-    <t>4210117016716</t>
-  </si>
-  <si>
     <t>9140003614251</t>
   </si>
   <si>
@@ -72,22 +57,25 @@
     <t>When CNIC is 1610112347845</t>
   </si>
   <si>
-    <t>accounts/CustomerRelationshipInquiry/1610112347845?ReqUID=1234567</t>
-  </si>
-  <si>
     <t>accounts/CustomerRelationshipInquiry/9140003614251?ReqUID=1234567</t>
   </si>
   <si>
-    <t>accounts/CustomerRelationshipInquiry/4210117016716?ReqUID=1234567</t>
-  </si>
-  <si>
-    <t>accounts/CustomerRelationshipInquiry/8120216868001?ReqUID=1234567</t>
-  </si>
-  <si>
-    <t>accounts/CustomerRelationshipInquiry/1620154029935?ReqUID=1234567</t>
-  </si>
-  <si>
-    <t>accounts/CustomerRelationshipInquiry/4250159948621?ReqUID=1234567</t>
+    <t>accounts/CustomerRelationshipInquiry/</t>
+  </si>
+  <si>
+    <t>4250159948621?ReqUID=1234567</t>
+  </si>
+  <si>
+    <t>1610112347845?ReqUID=1234567</t>
+  </si>
+  <si>
+    <t>1620154029935?ReqUID=1234567</t>
+  </si>
+  <si>
+    <t>8120216868001?ReqUID=1234567</t>
+  </si>
+  <si>
+    <t>4210117016716?ReqUID=1234567</t>
   </si>
 </sst>
 </file>
@@ -429,7 +417,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +425,7 @@
     <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -456,86 +444,86 @@
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
